--- a/RBS_7Setembro/RBS_07Setembro.xlsx
+++ b/RBS_7Setembro/RBS_07Setembro.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Runs" sheetId="2" r:id="rId2"/>
+    <sheet name="Runs" sheetId="2" r:id="rId1"/>
+    <sheet name="Ta-Nb-V Calib." sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Run</t>
   </si>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t>Au 2</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>170 º</t>
+  </si>
+  <si>
+    <t>160 º</t>
+  </si>
+  <si>
+    <t>Mean K factor</t>
   </si>
 </sst>
 </file>
@@ -457,40 +475,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B5"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <f>0.000015*6.022E+23*3.18/78.07</f>
-        <v>3.6793826053541702E+17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <f>0.0015*6.022E+23*1.23/100.117</f>
-        <v>1.1097605801212582E+19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -761,4 +748,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RBS_7Setembro/RBS_07Setembro.xlsx
+++ b/RBS_7Setembro/RBS_07Setembro.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Runs" sheetId="2" r:id="rId1"/>
     <sheet name="Ta-Nb-V Calib." sheetId="3" r:id="rId2"/>
+    <sheet name="YbGeSiO Calib." sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Run</t>
   </si>
@@ -103,13 +104,73 @@
   </si>
   <si>
     <t>Mean K factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0 = </t>
+  </si>
+  <si>
+    <t>keV</t>
+  </si>
+  <si>
+    <t>E back</t>
+  </si>
+  <si>
+    <t># peak</t>
+  </si>
+  <si>
+    <t>ROI Down</t>
+  </si>
+  <si>
+    <t>ROI Up</t>
+  </si>
+  <si>
+    <t>Total integral</t>
+  </si>
+  <si>
+    <t>Net Integral</t>
+  </si>
+  <si>
+    <t>Centroid</t>
+  </si>
+  <si>
+    <t>Max.</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>FWHM</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Surface channel</t>
+  </si>
+  <si>
+    <t>Ge</t>
+  </si>
+  <si>
+    <t>Yb</t>
+  </si>
+  <si>
+    <t>E (keV) =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Ch + </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +178,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +218,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF950E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD320"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3DEB3D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE7F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,11 +350,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -195,12 +381,106 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFDDDFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -210,6 +490,2224 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Calib.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RBS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4733158355205601E-3"/>
+                  <c:y val="-0.15782407407407406"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ta-Nb-V Calib.'!$H$18:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ta-Nb-V Calib.'!$K$18:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1956.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1916.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1850.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1733.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1555.4999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1356749824"/>
+        <c:axId val="-1356744384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1356749824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1356744384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1356744384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Energy (keV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1356749824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RBS YbGeSiO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1415573053368332E-2"/>
+                  <c:y val="-0.22866324001166521"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'YbGeSiO Calib.'!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'YbGeSiO Calib.'!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1555.4999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1733.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1894.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1954.8000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1356742752"/>
+        <c:axId val="-1356737312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1356742752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1356737312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1356737312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+          <c:min val="1500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Energy (keV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1356742752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>321735</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="641351" y="4489450"/>
+          <a:ext cx="4817534" cy="3613150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,8 +3025,8 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <f>0.000015*6.022E+23*19.3/196.97</f>
-        <v>8.8509366908666304E+17</v>
+        <f>0.00001*6.022E+23*19.3/196.967</f>
+        <v>5.9007143328577894E+17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -752,41 +3250,574 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E4"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="40">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="F3" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="E4" s="32">
+        <f t="shared" ref="E4" si="0">(C4+D4)/2</f>
+        <v>0.77774999999999994</v>
+      </c>
+      <c r="F4" s="34">
+        <f t="shared" ref="F4:F8" si="1">$B$1*E4</f>
+        <v>1555.4999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="E5" s="24">
+        <f t="shared" ref="E5:E8" si="2">(C5+D5)/2</f>
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="1"/>
+        <v>1733.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23">
+        <v>0.86580000000000001</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="2"/>
+        <v>0.86624999999999996</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="1"/>
+        <v>1732.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.871</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="2"/>
+        <v>0.87054999999999993</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="1"/>
+        <v>1741.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.875</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="2"/>
+        <v>0.87454999999999994</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="1"/>
+        <v>1749.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="C9" s="7">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="E9" s="7">
+        <f>(C9+D9)/2</f>
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="F9" s="14">
+        <f>$B$1*E9</f>
+        <v>1850.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="7"/>
+      <c r="C10" s="11">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" ref="E10:E14" si="3">(C10+D10)/2</f>
+        <v>0.92385000000000006</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F14" si="4">$B$1*E10</f>
+        <v>1847.7</v>
+      </c>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="C11" s="8">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="3"/>
+        <v>0.95835000000000004</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="4"/>
+        <v>1916.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
         <v>22</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="3"/>
+        <v>0.97835000000000005</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>1956.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="9"/>
+      <c r="C13" s="13">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="3"/>
+        <v>0.97825000000000006</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>1956.5000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="3"/>
+        <v>0.97835000000000005</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="4"/>
+        <v>1956.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:16" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
+        <v>700</v>
+      </c>
+      <c r="D18" s="19">
+        <v>720</v>
+      </c>
+      <c r="E18" s="20">
+        <v>7993</v>
+      </c>
+      <c r="F18" s="21">
+        <v>7090</v>
+      </c>
+      <c r="G18" s="20">
+        <v>707.96</v>
+      </c>
+      <c r="H18" s="21">
+        <v>708</v>
+      </c>
+      <c r="I18" s="20">
+        <v>2.97</v>
+      </c>
+      <c r="J18" s="21">
+        <v>7</v>
+      </c>
+      <c r="K18" s="14">
+        <f>F14</f>
+        <v>1956.7</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="39">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="39">
+        <v>-1448.4422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="17">
+        <v>2</v>
+      </c>
+      <c r="C19" s="18">
+        <v>642</v>
+      </c>
+      <c r="D19" s="19">
+        <v>660</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2328</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1986</v>
+      </c>
+      <c r="G19" s="20">
+        <v>649.78</v>
+      </c>
+      <c r="H19" s="21">
+        <v>651</v>
+      </c>
+      <c r="I19" s="20">
+        <v>2.84</v>
+      </c>
+      <c r="J19" s="21">
+        <v>6.69</v>
+      </c>
+      <c r="K19" s="14">
+        <f>F11</f>
+        <v>1916.7</v>
+      </c>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38">
+        <v>60.503700000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="17">
+        <v>3</v>
+      </c>
+      <c r="C20" s="18">
+        <v>555</v>
+      </c>
+      <c r="D20" s="19">
+        <v>572</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1333</v>
+      </c>
+      <c r="F20" s="21">
+        <v>856</v>
+      </c>
+      <c r="G20" s="20">
+        <v>561.45000000000005</v>
+      </c>
+      <c r="H20" s="21">
+        <v>560</v>
+      </c>
+      <c r="I20" s="20">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J20" s="21">
+        <v>5.76</v>
+      </c>
+      <c r="K20" s="14">
+        <f>F9</f>
+        <v>1850.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="35">
+        <v>426</v>
+      </c>
+      <c r="I21" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="K21" s="14">
+        <f>F5</f>
+        <v>1733.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="35">
+        <v>262</v>
+      </c>
+      <c r="I22" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="K22" s="14">
+        <f>F4</f>
+        <v>1555.4999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="40">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="D3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="F4" s="31">
+        <f>(D4+E4)/2</f>
+        <v>0.77774999999999994</v>
+      </c>
+      <c r="G4" s="30">
+        <f>$B$1*F4</f>
+        <v>1555.4999999999998</v>
+      </c>
+      <c r="H4">
+        <v>261</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" ref="F5:F7" si="0">(D5+E5)/2</f>
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5:G7" si="1">$B$1*F5</f>
+        <v>1733.4</v>
+      </c>
+      <c r="H5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.9476</v>
+      </c>
+      <c r="F6" s="28">
+        <f t="shared" si="0"/>
+        <v>0.94700000000000006</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>1894.0000000000002</v>
+      </c>
+      <c r="H6">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="F7" s="29">
+        <f t="shared" si="0"/>
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>1954.8000000000002</v>
+      </c>
+      <c r="H7">
+        <v>708</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RBS_7Setembro/RBS_07Setembro.xlsx
+++ b/RBS_7Setembro/RBS_07Setembro.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Runs" sheetId="2" r:id="rId1"/>
     <sheet name="Ta-Nb-V Calib." sheetId="3" r:id="rId2"/>
     <sheet name="YbGeSiO Calib." sheetId="4" r:id="rId3"/>
+    <sheet name="Stop. Powers" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>Run</t>
   </si>
@@ -161,6 +162,24 @@
   </si>
   <si>
     <t xml:space="preserve">*Ch + </t>
+  </si>
+  <si>
+    <t>Layer nr</t>
+  </si>
+  <si>
+    <t>Effective E</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Density (g cm-3)</t>
   </si>
 </sst>
 </file>
@@ -303,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -365,11 +384,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -469,6 +497,9 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,11 +735,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1356749824"/>
-        <c:axId val="-1356744384"/>
+        <c:axId val="-2007904304"/>
+        <c:axId val="-2007903216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1356749824"/>
+        <c:axId val="-2007904304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,12 +852,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1356744384"/>
+        <c:crossAx val="-2007903216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1356744384"/>
+        <c:axId val="-2007903216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +970,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1356749824"/>
+        <c:crossAx val="-2007904304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1035,6 +1066,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1200,11 +1232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1356742752"/>
-        <c:axId val="-1356737312"/>
+        <c:axId val="-2007916272"/>
+        <c:axId val="-2007914096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1356742752"/>
+        <c:axId val="-2007916272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,6 +1282,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1316,12 +1349,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1356737312"/>
+        <c:crossAx val="-2007914096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1356737312"/>
+        <c:axId val="-2007914096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1369,6 +1402,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1435,7 +1469,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1356742752"/>
+        <c:crossAx val="-2007916272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3250,10 +3284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3262,7 +3296,7 @@
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>26</v>
       </c>
@@ -3273,7 +3307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
@@ -3286,8 +3320,20 @@
       <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="39">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="39">
+        <v>-1448.4422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="33" t="s">
         <v>39</v>
       </c>
@@ -3305,8 +3351,16 @@
         <f t="shared" ref="F4:F8" si="1">$B$1*E4</f>
         <v>1555.4999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H4" s="38"/>
+      <c r="I4" s="38">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38">
+        <v>60.503700000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="23" t="s">
         <v>38</v>
       </c>
@@ -3325,7 +3379,7 @@
         <v>1733.4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="23"/>
       <c r="C6" s="23">
         <v>0.86580000000000001</v>
@@ -3342,7 +3396,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="23"/>
       <c r="C7" s="23">
         <v>0.87009999999999998</v>
@@ -3359,7 +3413,7 @@
         <v>1741.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="23"/>
       <c r="C8" s="23">
         <v>0.87409999999999999</v>
@@ -3376,7 +3430,7 @@
         <v>1749.1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
@@ -3395,7 +3449,7 @@
         <v>1850.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="7"/>
       <c r="C10" s="11">
         <v>0.92300000000000004</v>
@@ -3413,7 +3467,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
@@ -3432,7 +3486,7 @@
         <v>1916.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -3451,7 +3505,7 @@
         <v>1956.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
       <c r="C13" s="13">
         <v>0.97799999999999998</v>
@@ -3468,7 +3522,7 @@
         <v>1956.5000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="C14" s="9">
         <v>0.97809999999999997</v>
@@ -3485,8 +3539,8 @@
         <v>1956.7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:16" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
@@ -3517,8 +3571,14 @@
       <c r="K17" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
@@ -3553,20 +3613,11 @@
         <f>F14</f>
         <v>1956.7</v>
       </c>
-      <c r="M18" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="39">
-        <v>0.71840000000000004</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="39">
-        <v>-1448.4422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
@@ -3601,16 +3652,11 @@
         <f>F11</f>
         <v>1916.7</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38">
-        <v>60.503700000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
@@ -3645,8 +3691,15 @@
         <f>F9</f>
         <v>1850.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <f>F9</f>
+        <v>1850.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
         <v>38</v>
       </c>
@@ -3661,7 +3714,7 @@
         <v>1733.4</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
         <v>39</v>
       </c>
@@ -3688,7 +3741,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3820,4 +3873,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RBS_7Setembro/RBS_07Setembro.xlsx
+++ b/RBS_7Setembro/RBS_07Setembro.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="2" r:id="rId1"/>
-    <sheet name="Ta-Nb-V Calib." sheetId="3" r:id="rId2"/>
-    <sheet name="YbGeSiO Calib." sheetId="4" r:id="rId3"/>
-    <sheet name="Stop. Powers" sheetId="5" r:id="rId4"/>
+    <sheet name="Ta-Nb-V Calib. ERD" sheetId="3" r:id="rId2"/>
+    <sheet name="YbGeSiO Calib. ERD" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Run</t>
   </si>
@@ -50,9 +49,6 @@
     <t>Position (mm)</t>
   </si>
   <si>
-    <t>1515 keV</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -98,51 +94,12 @@
     <t>Ta</t>
   </si>
   <si>
-    <t>170 º</t>
-  </si>
-  <si>
-    <t>160 º</t>
-  </si>
-  <si>
-    <t>Mean K factor</t>
-  </si>
-  <si>
     <t xml:space="preserve">E0 = </t>
   </si>
   <si>
     <t>keV</t>
   </si>
   <si>
-    <t>E back</t>
-  </si>
-  <si>
-    <t># peak</t>
-  </si>
-  <si>
-    <t>ROI Down</t>
-  </si>
-  <si>
-    <t>ROI Up</t>
-  </si>
-  <si>
-    <t>Total integral</t>
-  </si>
-  <si>
-    <t>Net Integral</t>
-  </si>
-  <si>
-    <t>Centroid</t>
-  </si>
-  <si>
-    <t>Max.</t>
-  </si>
-  <si>
-    <t>Sigma</t>
-  </si>
-  <si>
-    <t>FWHM</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -158,38 +115,51 @@
     <t>Yb</t>
   </si>
   <si>
-    <t>E (keV) =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Ch + </t>
-  </si>
-  <si>
-    <t>Layer nr</t>
-  </si>
-  <si>
-    <t>Effective E</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Density (g cm-3)</t>
+    <t>ug/cm2</t>
+  </si>
+  <si>
+    <t>10^15atms/cm2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>2000 keV</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>kinematic factor</t>
+  </si>
+  <si>
+    <t>Back Energy (keV)</t>
+  </si>
+  <si>
+    <t>Effective energy</t>
+  </si>
+  <si>
+    <t>Kinematic factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,19 +173,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -263,55 +220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF950E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD320"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3DEB3D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE7F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,8 +230,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -371,33 +328,89 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -411,96 +424,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,13 +626,18 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4733158355205601E-3"/>
-                  <c:y val="-0.15782407407407406"/>
+                  <c:x val="1.3113347207620845E-3"/>
+                  <c:y val="-0.16170506912442395"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -660,12 +648,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -679,48 +664,48 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ta-Nb-V Calib.'!$H$18:$H$22</c:f>
+              <c:f>'Ta-Nb-V Calib. ERD'!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>708</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>651</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>560</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>426</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262</c:v>
+                  <c:v>714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ta-Nb-V Calib.'!$K$18:$K$22</c:f>
+              <c:f>'Ta-Nb-V Calib. ERD'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1956.7</c:v>
+                  <c:v>731.8374061402385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1916.7</c:v>
+                  <c:v>1137.560513518911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1850.6</c:v>
+                  <c:v>1467.5088098187048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1733.4</c:v>
+                  <c:v>1688.1740454726353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1555.4999999999998</c:v>
+                  <c:v>1833.3786173248545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,11 +720,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2007904304"/>
-        <c:axId val="-2007903216"/>
+        <c:axId val="1151347152"/>
+        <c:axId val="1151350416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2007904304"/>
+        <c:axId val="1151347152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,12 +837,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007903216"/>
+        <c:crossAx val="1151350416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2007903216"/>
+        <c:axId val="1151350416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +918,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -970,7 +955,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007904304"/>
+        <c:crossAx val="1151347152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -982,38 +967,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1141,18 +1094,37 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.1415573053368332E-2"/>
-                  <c:y val="-0.22866324001166521"/>
+                  <c:x val="1.6467672616620133E-2"/>
+                  <c:y val="-0.16248067949839604"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1163,12 +1135,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -1182,7 +1151,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'YbGeSiO Calib.'!$H$4:$H$7</c:f>
+              <c:f>'YbGeSiO Calib. ERD'!$H$4:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1203,21 +1172,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'YbGeSiO Calib.'!$G$4:$G$7</c:f>
+              <c:f>'YbGeSiO Calib. ERD'!$G$4:$G$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1555.4999999999998</c:v>
+                  <c:v>554.3668351512307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1733.4</c:v>
+                  <c:v>861.70208899057502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1894.0000000000002</c:v>
+                  <c:v>1219.5840354861748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1954.8000000000002</c:v>
+                  <c:v>1383.2783211434773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,11 +1201,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2007916272"/>
-        <c:axId val="-2007914096"/>
+        <c:axId val="1346596464"/>
+        <c:axId val="1346600272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2007916272"/>
+        <c:axId val="1346596464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,16 +1318,14 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007914096"/>
+        <c:crossAx val="1346600272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2007914096"/>
+        <c:axId val="1346600272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2000"/>
-          <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1432,7 +1399,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1469,7 +1436,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007916272"/>
+        <c:crossAx val="1346596464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2634,16 +2601,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2664,16 +2631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311149</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>321735</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2682,7 +2649,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -2690,14 +2657,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="9754" t="11423" r="11556" b="9490"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="641351" y="4489450"/>
-          <a:ext cx="4817534" cy="3613150"/>
+          <a:off x="311149" y="1784350"/>
+          <a:ext cx="5029201" cy="3790854"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2713,16 +2679,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3007,10 +2973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3024,19 +2990,28 @@
     <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.81640625" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3056,19 +3031,26 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <f>0.00001*6.022E+23*19.3/196.967</f>
-        <v>5.9007143328577894E+17</v>
+        <v>7</v>
+      </c>
+      <c r="J3" s="17">
+        <f>0.00001*6.022E+23*19.3/196.967/1000000000000000</f>
+        <v>590.07143328577899</v>
+      </c>
+      <c r="K3" s="18">
+        <f>0.00001*19.3*1000000</f>
+        <v>193.00000000000003</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3080,41 +3062,52 @@
         <v>20000</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J4" s="20">
+        <f>0.000014*6.022E+23*2.7/12.011/1000000000000000</f>
+        <v>1895.1927399883441</v>
+      </c>
+      <c r="K4" s="21">
+        <f>0.000016*3.52*1000000</f>
+        <v>56.319999999999993</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3126,15 +3119,15 @@
         <v>20000</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3143,41 +3136,41 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3186,38 +3179,38 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3226,48 +3219,48 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>13</v>
       </c>
@@ -3284,450 +3277,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="C3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="40">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>27</v>
+      <c r="I3" s="23" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C3" s="10" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8</v>
+      </c>
+      <c r="E4" s="26">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="F4" s="11">
+        <f>((SQRT(1-(4.0026/E4)^2*SIN(RADIANS(165))^2)+4.0026/E4*COS(RADIANS(165)))/(1+4.0026/E4))^2</f>
+        <v>0.36591870307011926</v>
+      </c>
+      <c r="G4" s="27">
+        <f>B1*F4</f>
+        <v>731.8374061402385</v>
+      </c>
+      <c r="H4" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="29">
+        <v>14</v>
+      </c>
+      <c r="E5" s="30">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="F5" s="31">
+        <f t="shared" ref="F5:F8" si="0">((SQRT(1-(4.0026/E5)^2*SIN(RADIANS(165))^2)+4.0026/E5*COS(RADIANS(165)))/(1+4.0026/E5))^2</f>
+        <v>0.56878025675945543</v>
+      </c>
+      <c r="G5" s="32">
+        <f>2000*F5</f>
+        <v>1137.560513518911</v>
+      </c>
+      <c r="H5" s="29">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
         <v>23</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="39">
-        <v>0.71840000000000004</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="39">
-        <v>-1448.4422</v>
+      <c r="E6" s="34">
+        <v>50.942</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.7337544049093524</v>
+      </c>
+      <c r="G6" s="35">
+        <f>2000*F6</f>
+        <v>1467.5088098187048</v>
+      </c>
+      <c r="H6" s="6">
+        <v>567</v>
+      </c>
+      <c r="I6" s="13">
+        <f>G6</f>
+        <v>1467.5088098187048</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="D4" s="33">
-        <v>0.77849999999999997</v>
-      </c>
-      <c r="E4" s="32">
-        <f t="shared" ref="E4" si="0">(C4+D4)/2</f>
-        <v>0.77774999999999994</v>
-      </c>
-      <c r="F4" s="34">
-        <f t="shared" ref="F4:F8" si="1">$B$1*E4</f>
-        <v>1555.4999999999998</v>
-      </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38">
-        <v>60.503700000000002</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <v>41</v>
+      </c>
+      <c r="E7" s="37">
+        <v>92.906000000000006</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.84408702273631764</v>
+      </c>
+      <c r="G7" s="38">
+        <f>2000*F7</f>
+        <v>1688.1740454726353</v>
+      </c>
+      <c r="H7" s="5">
+        <v>656</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0.86619999999999997</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.86719999999999997</v>
-      </c>
-      <c r="E5" s="24">
-        <f t="shared" ref="E5:E8" si="2">(C5+D5)/2</f>
-        <v>0.86670000000000003</v>
-      </c>
-      <c r="F5" s="26">
-        <f t="shared" si="1"/>
-        <v>1733.4</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="40">
+        <v>73</v>
+      </c>
+      <c r="E8" s="41">
+        <v>180.95</v>
+      </c>
+      <c r="F8" s="42">
+        <f t="shared" si="0"/>
+        <v>0.91668930866242726</v>
+      </c>
+      <c r="G8" s="43">
+        <f>2000*F8</f>
+        <v>1833.3786173248545</v>
+      </c>
+      <c r="H8" s="40">
+        <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23">
-        <v>0.86580000000000001</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.86670000000000003</v>
-      </c>
-      <c r="E6" s="24">
-        <f t="shared" si="2"/>
-        <v>0.86624999999999996</v>
-      </c>
-      <c r="F6" s="25">
-        <f t="shared" si="1"/>
-        <v>1732.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.871</v>
-      </c>
-      <c r="E7" s="24">
-        <f t="shared" si="2"/>
-        <v>0.87054999999999993</v>
-      </c>
-      <c r="F7" s="25">
-        <f t="shared" si="1"/>
-        <v>1741.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23">
-        <v>0.87409999999999999</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.875</v>
-      </c>
-      <c r="E8" s="24">
-        <f t="shared" si="2"/>
-        <v>0.87454999999999994</v>
-      </c>
-      <c r="F8" s="25">
-        <f t="shared" si="1"/>
-        <v>1749.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.92449999999999999</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.92610000000000003</v>
-      </c>
-      <c r="E9" s="7">
-        <f>(C9+D9)/2</f>
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="F9" s="14">
-        <f>$B$1*E9</f>
-        <v>1850.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="7"/>
-      <c r="C10" s="11">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.92469999999999997</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" ref="E10:E14" si="3">(C10+D10)/2</f>
-        <v>0.92385000000000006</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F14" si="4">$B$1*E10</f>
-        <v>1847.7</v>
-      </c>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.95789999999999997</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.95879999999999999</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="3"/>
-        <v>0.95835000000000004</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="4"/>
-        <v>1916.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.97809999999999997</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.97860000000000003</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="3"/>
-        <v>0.97835000000000005</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
-        <v>1956.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="9"/>
-      <c r="C13" s="13">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.97850000000000004</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="3"/>
-        <v>0.97825000000000006</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="4"/>
-        <v>1956.5000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9">
-        <v>0.97809999999999997</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.97860000000000003</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" si="3"/>
-        <v>0.97835000000000005</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" si="4"/>
-        <v>1956.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:13" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18">
-        <v>700</v>
-      </c>
-      <c r="D18" s="19">
-        <v>720</v>
-      </c>
-      <c r="E18" s="20">
-        <v>7993</v>
-      </c>
-      <c r="F18" s="21">
-        <v>7090</v>
-      </c>
-      <c r="G18" s="20">
-        <v>707.96</v>
-      </c>
-      <c r="H18" s="21">
-        <v>708</v>
-      </c>
-      <c r="I18" s="20">
-        <v>2.97</v>
-      </c>
-      <c r="J18" s="21">
-        <v>7</v>
-      </c>
-      <c r="K18" s="14">
-        <f>F14</f>
-        <v>1956.7</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="17">
-        <v>2</v>
-      </c>
-      <c r="C19" s="18">
-        <v>642</v>
-      </c>
-      <c r="D19" s="19">
-        <v>660</v>
-      </c>
-      <c r="E19" s="20">
-        <v>2328</v>
-      </c>
-      <c r="F19" s="21">
-        <v>1986</v>
-      </c>
-      <c r="G19" s="20">
-        <v>649.78</v>
-      </c>
-      <c r="H19" s="21">
-        <v>651</v>
-      </c>
-      <c r="I19" s="20">
-        <v>2.84</v>
-      </c>
-      <c r="J19" s="21">
-        <v>6.69</v>
-      </c>
-      <c r="K19" s="14">
-        <f>F11</f>
-        <v>1916.7</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="17">
-        <v>3</v>
-      </c>
-      <c r="C20" s="18">
-        <v>555</v>
-      </c>
-      <c r="D20" s="19">
-        <v>572</v>
-      </c>
-      <c r="E20" s="20">
-        <v>1333</v>
-      </c>
-      <c r="F20" s="21">
-        <v>856</v>
-      </c>
-      <c r="G20" s="20">
-        <v>561.45000000000005</v>
-      </c>
-      <c r="H20" s="21">
-        <v>560</v>
-      </c>
-      <c r="I20" s="20">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J20" s="21">
-        <v>5.76</v>
-      </c>
-      <c r="K20" s="14">
-        <f>F9</f>
-        <v>1850.6</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <f>F9</f>
-        <v>1850.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="35">
-        <v>426</v>
-      </c>
-      <c r="I21" s="41">
-        <v>2.5</v>
-      </c>
-      <c r="K21" s="14">
-        <f>F5</f>
-        <v>1733.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="35">
-        <v>262</v>
-      </c>
-      <c r="I22" s="41">
-        <v>2.5</v>
-      </c>
-      <c r="K22" s="14">
-        <f>F4</f>
-        <v>1555.4999999999998</v>
-      </c>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3738,176 +3450,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="9.08984375" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>4.0026000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="40">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="40" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8</v>
+      </c>
+      <c r="E4" s="26">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="F4" s="11">
+        <f>((SQRT(1-(4.0026/E4)^2*SIN(RADIANS(165))^2)+4.0026/E4*COS(RADIANS(165)))/(1+4.0026/E4))^2</f>
+        <v>0.36591870307011926</v>
+      </c>
+      <c r="G4" s="27">
+        <f>1515*F4</f>
+        <v>554.3668351512307</v>
+      </c>
+      <c r="H4" s="7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="29">
+        <v>14</v>
+      </c>
+      <c r="E5" s="30">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="F5" s="31">
+        <f t="shared" ref="F5:F8" si="0">((SQRT(1-(4.0026/E5)^2*SIN(RADIANS(165))^2)+4.0026/E5*COS(RADIANS(165)))/(1+4.0026/E5))^2</f>
+        <v>0.56878025675945543</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" ref="G5:G8" si="1">1515*F5</f>
+        <v>861.70208899057502</v>
+      </c>
+      <c r="H5" s="44">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="33" t="s">
         <v>27</v>
       </c>
+      <c r="D6" s="6">
+        <v>32</v>
+      </c>
+      <c r="E6" s="34">
+        <v>72.63</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.80500596401727709</v>
+      </c>
+      <c r="G6" s="35">
+        <f t="shared" si="1"/>
+        <v>1219.5840354861748</v>
+      </c>
+      <c r="H6" s="6">
+        <v>623</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="D3" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="36" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C4" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="32">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0.77849999999999997</v>
-      </c>
-      <c r="F4" s="31">
-        <f>(D4+E4)/2</f>
-        <v>0.77774999999999994</v>
-      </c>
-      <c r="G4" s="30">
-        <f>$B$1*F4</f>
-        <v>1555.4999999999998</v>
-      </c>
-      <c r="H4">
-        <v>261</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.86619999999999997</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0.86719999999999997</v>
-      </c>
-      <c r="F5" s="37">
-        <f t="shared" ref="F5:F7" si="0">(D5+E5)/2</f>
-        <v>0.86670000000000003</v>
-      </c>
-      <c r="G5" s="22">
-        <f t="shared" ref="G5:G7" si="1">$B$1*F5</f>
-        <v>1733.4</v>
-      </c>
-      <c r="H5">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.94640000000000002</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.9476</v>
-      </c>
-      <c r="F6" s="28">
+      <c r="D7" s="5">
+        <v>70</v>
+      </c>
+      <c r="E7" s="37">
+        <v>173.05</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>0.94700000000000006</v>
-      </c>
-      <c r="G6" s="5">
+        <v>0.91305499745444052</v>
+      </c>
+      <c r="G7" s="38">
         <f t="shared" si="1"/>
-        <v>1894.0000000000002</v>
-      </c>
-      <c r="H6">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.97709999999999997</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.97770000000000001</v>
-      </c>
-      <c r="F7" s="29">
-        <f t="shared" si="0"/>
-        <v>0.97740000000000005</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>1954.8000000000002</v>
-      </c>
-      <c r="H7">
+        <v>1383.2783211434773</v>
+      </c>
+      <c r="H7" s="5">
         <v>708</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RBS_7Setembro/RBS_07Setembro.xlsx
+++ b/RBS_7Setembro/RBS_07Setembro.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="2" r:id="rId1"/>
-    <sheet name="Ta-Nb-V Calib. ERD" sheetId="3" r:id="rId2"/>
-    <sheet name="YbGeSiO Calib. ERD" sheetId="4" r:id="rId3"/>
+    <sheet name="YbGeSiO Calib. ERD" sheetId="4" r:id="rId2"/>
+    <sheet name="Ta-Nb-V Calib. ERD" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Run</t>
   </si>
@@ -149,17 +149,45 @@
   </si>
   <si>
     <t>Kinematic factor</t>
+  </si>
+  <si>
+    <t>Energy (MeV)</t>
+  </si>
+  <si>
+    <t>Stop. Pow. MeV cm^2/g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au dens.ty = </t>
+  </si>
+  <si>
+    <t>g/cm^3</t>
+  </si>
+  <si>
+    <t>Stop. Pow. MeV/cm</t>
+  </si>
+  <si>
+    <t>Eloss factor</t>
+  </si>
+  <si>
+    <t>x (cm)</t>
+  </si>
+  <si>
+    <t>x (nm)</t>
+  </si>
+  <si>
+    <t>nm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +204,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,12 +257,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -232,19 +269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,8 +303,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDDFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEFFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -331,46 +374,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -406,11 +409,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,66 +560,204 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,6 +766,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEFFD"/>
+      <color rgb="FFFFDDFA"/>
       <color rgb="FFFDDDFF"/>
     </mruColors>
   </colors>
@@ -507,504 +783,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Calib.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>RBS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.3113347207620845E-3"/>
-                  <c:y val="-0.16170506912442395"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Ta-Nb-V Calib. ERD'!$H$4:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>426</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>567</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>656</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>714</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Ta-Nb-V Calib. ERD'!$G$4:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>731.8374061402385</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1137.560513518911</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1467.5088098187048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1688.1740454726353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1833.3786173248545</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1151347152"/>
-        <c:axId val="1151350416"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1151347152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Channel</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1151350416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1151350416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Energy (keV)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1151347152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -1177,16 +955,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>554.3668351512307</c:v>
+                  <c:v>731.8374061402385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>861.70208899057502</c:v>
+                  <c:v>1137.560513518911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1219.5840354861748</c:v>
+                  <c:v>1610.0119280345541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1383.2783211434773</c:v>
+                  <c:v>1826.1099949088809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,11 +979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1346596464"/>
-        <c:axId val="1346600272"/>
+        <c:axId val="1446988048"/>
+        <c:axId val="1446983696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1346596464"/>
+        <c:axId val="1446988048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,12 +1096,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1346600272"/>
+        <c:crossAx val="1446983696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1346600272"/>
+        <c:axId val="1446983696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1214,505 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1346596464"/>
+        <c:crossAx val="1446988048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Calib.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RBS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3113347207620845E-3"/>
+                  <c:y val="-0.16170506912442395"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ta-Nb-V Calib. ERD'!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ta-Nb-V Calib. ERD'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>731.8374061402385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1137.560513518911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1467.5088098187048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1688.1740454726353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1833.3786173248545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1446981520"/>
+        <c:axId val="1446991856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1446981520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1446991856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1446991856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Energy (keV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1446981520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2601,6 +2877,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2670,41 +2981,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2975,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2990,11 +3266,11 @@
     <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.81640625" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3002,15 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="16"/>
-    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -3033,19 +3301,8 @@
       <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="17">
-        <f>0.00001*6.022E+23*19.3/196.967/1000000000000000</f>
-        <v>590.07143328577899</v>
-      </c>
-      <c r="K3" s="18">
-        <f>0.00001*19.3*1000000</f>
-        <v>193.00000000000003</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3066,17 +3323,6 @@
       </c>
       <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="J4" s="20">
-        <f>0.000014*6.022E+23*2.7/12.011/1000000000000000</f>
-        <v>1895.1927399883441</v>
-      </c>
-      <c r="K4" s="21">
-        <f>0.000016*3.52*1000000</f>
-        <v>56.319999999999993</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -3185,7 +3431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>7</v>
       </c>
@@ -3224,6 +3470,16 @@
       <c r="G11" t="s">
         <v>8</v>
       </c>
+      <c r="I11" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12">
@@ -3244,20 +3500,73 @@
       <c r="G12" t="s">
         <v>8</v>
       </c>
+      <c r="I12" s="67">
+        <v>100</v>
+      </c>
+      <c r="J12" s="71">
+        <f>I12*10^-7*6.022E+23*19.3/196.967/1000000000000000</f>
+        <v>590.07143328577877</v>
+      </c>
+      <c r="K12" s="76">
+        <f>I12*10^-7*19.3*1000000</f>
+        <v>193</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>10</v>
       </c>
+      <c r="I13" s="70">
+        <v>111</v>
+      </c>
+      <c r="J13" s="71">
+        <f t="shared" ref="J13" si="0">I13*10^-7*6.022E+23*19.3/196.967/1000000000000000</f>
+        <v>654.97929094721451</v>
+      </c>
+      <c r="K13" s="74"/>
+      <c r="L13" s="75" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>11</v>
       </c>
+      <c r="I14" s="70">
+        <v>140</v>
+      </c>
+      <c r="J14" s="71">
+        <f t="shared" ref="J14" si="1">I14*10^-7*6.022E+23*2.7/12.011/1000000000000000</f>
+        <v>1895.1927399883441</v>
+      </c>
+      <c r="K14" s="72">
+        <f t="shared" ref="K14:K15" si="2">I14*10^-7*3.52*1000000</f>
+        <v>49.28</v>
+      </c>
+      <c r="L14" s="73" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>12</v>
+      </c>
+      <c r="I15" s="68">
+        <v>160</v>
+      </c>
+      <c r="J15" s="65">
+        <f>I15*10^-7*6.022E+23*2.7/12.011/1000000000000000</f>
+        <v>2165.9345599866792</v>
+      </c>
+      <c r="K15" s="66">
+        <f>I15*10^-7*3.52*1000000</f>
+        <v>56.319999999999993</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -3265,22 +3574,274 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>14</v>
+      </c>
+      <c r="I17" s="90">
+        <f>J17/10^-7/6.022E+23/19.3*196.967*1000000000000000</f>
+        <v>151.67655126367396</v>
+      </c>
+      <c r="J17">
+        <v>895</v>
+      </c>
+      <c r="L17" s="89" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="34">
+        <v>19.3</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>4.0026000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="C3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="43">
+        <v>8</v>
+      </c>
+      <c r="E4" s="44">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="F4" s="45">
+        <f>((SQRT(1-(4.0026/E4)^2*SIN(RADIANS(165))^2)+4.0026/E4*COS(RADIANS(165)))/(1+4.0026/E4))^2</f>
+        <v>0.36591870307011926</v>
+      </c>
+      <c r="G4" s="46">
+        <f>$B$1*F4</f>
+        <v>731.8374061402385</v>
+      </c>
+      <c r="H4" s="43">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C5" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="48">
+        <v>14</v>
+      </c>
+      <c r="E5" s="49">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="F5" s="50">
+        <f t="shared" ref="F5:F8" si="0">((SQRT(1-(4.0026/E5)^2*SIN(RADIANS(165))^2)+4.0026/E5*COS(RADIANS(165)))/(1+4.0026/E5))^2</f>
+        <v>0.56878025675945543</v>
+      </c>
+      <c r="G5" s="51">
+        <f t="shared" ref="G5:G8" si="1">$B$1*F5</f>
+        <v>1137.560513518911</v>
+      </c>
+      <c r="H5" s="52">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C6" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="54">
+        <v>32</v>
+      </c>
+      <c r="E6" s="55">
+        <v>72.63</v>
+      </c>
+      <c r="F6" s="56">
+        <f t="shared" si="0"/>
+        <v>0.80500596401727709</v>
+      </c>
+      <c r="G6" s="57">
+        <f t="shared" si="1"/>
+        <v>1610.0119280345541</v>
+      </c>
+      <c r="H6" s="54">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="59">
+        <v>70</v>
+      </c>
+      <c r="E7" s="60">
+        <v>173.05</v>
+      </c>
+      <c r="F7" s="61">
+        <f t="shared" si="0"/>
+        <v>0.91305499745444052</v>
+      </c>
+      <c r="G7" s="62">
+        <f t="shared" si="1"/>
+        <v>1826.1099949088809</v>
+      </c>
+      <c r="H7" s="59">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="36">
+        <v>79</v>
+      </c>
+      <c r="E8" s="36">
+        <v>196.97</v>
+      </c>
+      <c r="F8" s="63">
+        <f t="shared" si="0"/>
+        <v>0.92319962211780249</v>
+      </c>
+      <c r="G8" s="64">
+        <f t="shared" si="1"/>
+        <v>1846.399244235605</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="J8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J9" s="86">
+        <v>2</v>
+      </c>
+      <c r="K9" s="82">
+        <v>347.3</v>
+      </c>
+      <c r="L9" s="84">
+        <f>K9*$J$1</f>
+        <v>6702.89</v>
+      </c>
+      <c r="M9" s="81">
+        <f>(F8*L9+L10/COS(RADIANS(15)))</f>
+        <v>13788.813354337512</v>
+      </c>
+      <c r="N9" s="40">
+        <f>(B1-G8)/1000/M9</f>
+        <v>1.1139519537848933E-5</v>
+      </c>
+      <c r="O9" s="80">
+        <f>N9*10^7</f>
+        <v>111.39519537848933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="87">
+        <f>G8/1000</f>
+        <v>1.846399244235605</v>
+      </c>
+      <c r="K10" s="83">
+        <v>380.4</v>
+      </c>
+      <c r="L10" s="85">
+        <f t="shared" ref="L10" si="2">K10*$J$1</f>
+        <v>7341.72</v>
+      </c>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3302,44 +3863,44 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="7">
         <v>8</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="17">
         <v>15.999000000000001</v>
       </c>
       <c r="F4" s="11">
         <f>((SQRT(1-(4.0026/E4)^2*SIN(RADIANS(165))^2)+4.0026/E4*COS(RADIANS(165)))/(1+4.0026/E4))^2</f>
         <v>0.36591870307011926</v>
       </c>
-      <c r="G4" s="27">
-        <f>B1*F4</f>
+      <c r="G4" s="18">
+        <f>$B$1*F4</f>
         <v>731.8374061402385</v>
       </c>
       <c r="H4" s="7">
@@ -3347,43 +3908,43 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="20">
         <v>14</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="21">
         <v>28.085000000000001</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="22">
         <f t="shared" ref="F5:F8" si="0">((SQRT(1-(4.0026/E5)^2*SIN(RADIANS(165))^2)+4.0026/E5*COS(RADIANS(165)))/(1+4.0026/E5))^2</f>
         <v>0.56878025675945543</v>
       </c>
-      <c r="G5" s="32">
-        <f>2000*F5</f>
+      <c r="G5" s="35">
+        <f t="shared" ref="G5:G8" si="1">$B$1*F5</f>
         <v>1137.560513518911</v>
       </c>
-      <c r="H5" s="29">
-        <v>426</v>
+      <c r="H5" s="20">
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6">
         <v>23</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="24">
         <v>50.942</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>0.7337544049093524</v>
       </c>
-      <c r="G6" s="35">
-        <f>2000*F6</f>
+      <c r="G6" s="25">
+        <f t="shared" si="1"/>
         <v>1467.5088098187048</v>
       </c>
       <c r="H6" s="6">
@@ -3395,21 +3956,21 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5">
         <v>41</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="27">
         <v>92.906000000000006</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>0.84408702273631764</v>
       </c>
-      <c r="G7" s="38">
-        <f>2000*F7</f>
+      <c r="G7" s="28">
+        <f t="shared" si="1"/>
         <v>1688.1740454726353</v>
       </c>
       <c r="H7" s="5">
@@ -3417,24 +3978,24 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="30">
         <v>73</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="31">
         <v>180.95</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="32">
         <f t="shared" si="0"/>
         <v>0.91668930866242726</v>
       </c>
-      <c r="G8" s="43">
-        <f>2000*F8</f>
+      <c r="G8" s="33">
+        <f t="shared" si="1"/>
         <v>1833.3786173248545</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="30">
         <v>714</v>
       </c>
     </row>
@@ -3446,152 +4007,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="12">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>4.0026000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="C3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="26">
-        <v>15.999000000000001</v>
-      </c>
-      <c r="F4" s="11">
-        <f>((SQRT(1-(4.0026/E4)^2*SIN(RADIANS(165))^2)+4.0026/E4*COS(RADIANS(165)))/(1+4.0026/E4))^2</f>
-        <v>0.36591870307011926</v>
-      </c>
-      <c r="G4" s="27">
-        <f>1515*F4</f>
-        <v>554.3668351512307</v>
-      </c>
-      <c r="H4" s="7">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C5" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="29">
-        <v>14</v>
-      </c>
-      <c r="E5" s="30">
-        <v>28.085000000000001</v>
-      </c>
-      <c r="F5" s="31">
-        <f t="shared" ref="F5:F8" si="0">((SQRT(1-(4.0026/E5)^2*SIN(RADIANS(165))^2)+4.0026/E5*COS(RADIANS(165)))/(1+4.0026/E5))^2</f>
-        <v>0.56878025675945543</v>
-      </c>
-      <c r="G5" s="32">
-        <f t="shared" ref="G5:G8" si="1">1515*F5</f>
-        <v>861.70208899057502</v>
-      </c>
-      <c r="H5" s="44">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C6" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6">
-        <v>32</v>
-      </c>
-      <c r="E6" s="34">
-        <v>72.63</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>0.80500596401727709</v>
-      </c>
-      <c r="G6" s="35">
-        <f t="shared" si="1"/>
-        <v>1219.5840354861748</v>
-      </c>
-      <c r="H6" s="6">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5">
-        <v>70</v>
-      </c>
-      <c r="E7" s="37">
-        <v>173.05</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.91305499745444052</v>
-      </c>
-      <c r="G7" s="38">
-        <f t="shared" si="1"/>
-        <v>1383.2783211434773</v>
-      </c>
-      <c r="H7" s="5">
-        <v>708</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>